--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_169.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_169.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,403 +488,424 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5397727272727273</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.9, 34.68)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.12, 59.64)]</t>
+          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.32, 6.3)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[('0:00:41.080000', '0:00:43.340000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_213</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.82, 19.18)]</t>
+          <t>[('0:00:01.920000', '0:00:08.320000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:42.940000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(77.72, 95.68)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(21.78, 28.04)]</t>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_209</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5142857142857142</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.92, 13.46)]</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:18.800000', '0:02:24.460000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_115</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_184</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.07334525939177103</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.74, 26.98), (53.46, 62.74), (0.38, 6.26)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86), (34.66, 36.26), (8.26, 12.96)]</t>
+          <t>[('0:00:28.020000', '0:00:30.100000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:34.860000', '0:00:39.700000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[['A#:maj', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0), (36.14, 37.58), (9.62, 14.18)]</t>
+          <t>[('0:01:04.280000', '0:01:11')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:02.280000', '0:01:04.320000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(113.02, 114.76)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:00.360000', '0:00:05')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -888,317 +914,254 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(1.92, 8.32)]</t>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.14, 44.36)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(1.5, 4.8)]</t>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:40.060000', '0:02:44.460000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(8.18, 14.18)]</t>
+          <t>[('0:00:16.440000', '0:00:45.540000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_204</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.56, 36.42)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:43.100000', '0:00:47.740000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(105.28, 122.26)]</t>
+          <t>[('0:02:30.160000', '0:02:34.940000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(30.02, 32.12)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[('0:00:01.820000', '0:00:20.520000'), ('0:00:55.140000', '0:01:15.900000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_261</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1168269230769231</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'A:min7'], ['G/3', 'C', 'G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.565283, 18.936988), (13.079206, 17.500916)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(65.02, 68.08), (16.92, 23.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
